--- a/Datos/Database by set/Set with text box/Xlsx sets/Kaladesh Tokens (TKLD).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Kaladesh Tokens (TKLD).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A43"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,294 +444,56 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Beast</t>
+          <t>('Beast', ['Token Artifact Creature — Beast', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Token Artifact Creature — Beast</t>
+          <t>('Chandra, Torch of Defiance Emblem', ['Emblem — Chandra', 'Whenever you cast a spell, this emblem deals 5 damage to any target.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6/6</t>
+          <t>('Construct', ['Token Artifact Creature — Construct', '*/*'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chandra, Torch of Defiance Emblem</t>
+          <t>('Dovin Baan Emblem', ['Emblem — Dovin', 'Your opponents can’t untap more than two permanents during their untap steps.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Emblem — Chandra</t>
+          <t>('Energy Reserve', ['Card', '(Place your energy counters in this area.)'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Whenever you cast a spell, this emblem deals 5 damage to any target.</t>
+          <t>('Nissa, Vital Force Emblem', ['Emblem — Nissa', 'Whenever a land enters the battlefield under your control, you may draw a card.'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Construct</t>
+          <t>('Servo', ['Token Artifact Creature — Servo', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Token Artifact Creature — Construct</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>*/*</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Construct</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Token Artifact Creature — Construct</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>*/*</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Dovin Baan Emblem</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Emblem — Dovin</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Your opponents can’t untap more than two permanents during their untap steps.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Energy Reserve</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>(Place your energy counters in this area.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Nissa, Vital Force Emblem</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Emblem — Nissa</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Whenever a land enters the battlefield under your control, you may draw a card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Servo</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Token Artifact Creature — Servo</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Servo</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Token Artifact Creature — Servo</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Servo</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Token Artifact Creature — Servo</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Thopter</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Token Artifact Creature — Thopter</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Thopter</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Token Artifact Creature — Thopter</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Thopter</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Token Artifact Creature — Thopter</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>1/1</t>
+          <t>('Thopter', ['Token Artifact Creature — Thopter', 'Flying', '1/1'])</t>
         </is>
       </c>
     </row>
